--- a/Source/Game/VSclass/stage_event_1.xlsx
+++ b/Source/Game/VSclass/stage_event_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\oops2\OOPL-VS\Source\Game\VSclass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OOPS\OOPL-VS\Source\Game\VSclass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F798B4-7F4B-426C-A616-E9962A42DF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF53280-0B08-4B7C-B2A9-8905218FAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stage_event_11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>time_min</t>
   </si>
@@ -166,11 +166,10 @@
     <t>Ghost Swarm</t>
   </si>
   <si>
-    <t>BAT2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAT1</t>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Bat</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1142,30 +1141,27 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="4.375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="4.375" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4" customWidth="1"/>
+    <col min="21" max="25" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1250,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1326,8 +1322,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1350,11 +1346,11 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>-1</v>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>-1</v>
@@ -1403,7 +1399,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C4">
@@ -1884,10 +1880,10 @@
         <v>-1</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -1961,7 +1957,7 @@
         <v>-1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>0.5</v>
@@ -2038,10 +2034,10 @@
         <v>-1</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="s">
         <v>29</v>
@@ -2456,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T17">
         <v>-1</v>
@@ -3368,7 +3364,7 @@
         <v>46</v>
       </c>
       <c r="O29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3386,7 +3382,7 @@
         <v>46</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V29">
         <v>3</v>
@@ -3401,7 +3397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3652,6 +3648,9 @@
     <hyperlink ref="T29" r:id="rId15" tooltip="Ghost Swarm" display="https://vampire-survivors.fandom.com/wiki/Ghost_Swarm" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="N31" r:id="rId16" tooltip="Bat Swarm" display="https://vampire-survivors.fandom.com/wiki/Bat_Swarm" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="T31" r:id="rId17" tooltip="Bat Swarm" display="https://vampire-survivors.fandom.com/wiki/Bat_Swarm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J3" r:id="rId18" tooltip="Glowing Bat" display="https://vampire-survivors.fandom.com/wiki/Glowing_Bat" xr:uid="{049F3AD8-DA64-4720-ABA1-543C1A14B6A8}"/>
+    <hyperlink ref="B3" r:id="rId19" tooltip="Bat" display="https://vampire-survivors.fandom.com/wiki/Bat" xr:uid="{6DF3322F-FE92-458C-B2C6-351556E91DAC}"/>
+    <hyperlink ref="B4" r:id="rId20" tooltip="Bat" display="https://vampire-survivors.fandom.com/wiki/Bat" xr:uid="{4E390810-D3EF-4554-99DF-77719E5CA9B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
